--- a/posesiones/1381273.xlsx
+++ b/posesiones/1381273.xlsx
@@ -1739,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>16</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>37</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>25</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>16</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22">
         <v>22</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>26</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R29">
         <v>16</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>16</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R35">
         <v>23</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R37">
         <v>20</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R40">
         <v>24</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3809,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R45">
         <v>18</v>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R46">
         <v>18</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R48">
         <v>9</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49">
         <v>14</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>10</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R53">
         <v>16</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R55">
         <v>6</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R56">
         <v>19</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R58">
         <v>28</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4577,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60">
         <v>8</v>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R65">
         <v>25</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R70">
         <v>24</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R73">
         <v>26</v>
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R74">
         <v>12</v>
@@ -5315,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5412,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R77">
         <v>18</v>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5512,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R79">
         <v>14</v>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5612,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R81">
         <v>20</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R82">
         <v>26</v>
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R83">
         <v>18</v>
@@ -5771,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84">
         <v>24</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -6018,10 +6018,10 @@
         <v>1</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6062,10 +6062,10 @@
         <v>1</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6115,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R91">
         <v>11</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R93">
         <v>17</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R95">
         <v>14</v>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R96">
         <v>27</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R98">
         <v>16</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R104">
         <v>14</v>
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R105">
         <v>29</v>
@@ -6868,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R106">
         <v>15</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R108">
         <v>25</v>
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R109">
         <v>15</v>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7127,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R111">
         <v>11</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7559,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R120">
         <v>20</v>
@@ -7612,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R121">
         <v>21</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R123">
         <v>18</v>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7815,7 +7815,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R125">
         <v>10</v>
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7918,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R127">
         <v>16</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R129">
         <v>15</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8121,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R131">
         <v>8</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8265,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R134">
         <v>18</v>
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R135">
         <v>8</v>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R137">
         <v>27</v>
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R138">
         <v>24</v>
@@ -8524,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R139">
         <v>16</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8627,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R141">
         <v>18</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8730,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R143">
         <v>20</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8921,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R147">
         <v>11</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9121,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R151">
         <v>7</v>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9218,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R155">
         <v>19</v>
@@ -9368,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R156">
         <v>23</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9606,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9703,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R163">
         <v>19</v>
@@ -9753,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9897,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R167">
         <v>21</v>
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10044,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R170">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R175">
         <v>18</v>
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10523,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10852,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R187">
         <v>30</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11052,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R191">
         <v>16</v>
@@ -11096,10 +11096,10 @@
         <v>1</v>
       </c>
       <c r="P192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q192">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11146,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11334,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11428,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11610,10 +11610,10 @@
         <v>1</v>
       </c>
       <c r="P203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11663,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R204">
         <v>13</v>
@@ -11716,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11766,7 +11766,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R206">
         <v>10</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11869,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R208">
         <v>10</v>
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11972,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R210">
         <v>23</v>
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R212">
         <v>7</v>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R213">
         <v>10</v>
@@ -12181,7 +12181,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R214">
         <v>13</v>
@@ -12234,7 +12234,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R215">
         <v>17</v>
@@ -12287,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R216">
         <v>20</v>
@@ -12337,7 +12337,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12478,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12528,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R221">
         <v>18</v>
@@ -12581,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R222">
         <v>14</v>
@@ -12634,7 +12634,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R223">
         <v>9</v>
@@ -12684,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12731,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12828,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R229">
         <v>22</v>
@@ -12981,7 +12981,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R230">
         <v>3</v>
@@ -13034,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R231">
         <v>22</v>
@@ -13084,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13131,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13322,7 +13322,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R237">
         <v>21</v>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13419,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R240">
         <v>0</v>
@@ -13522,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R241">
         <v>16</v>
@@ -13575,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13622,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13669,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13766,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R246">
         <v>15</v>
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R247">
         <v>16</v>
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13919,7 +13919,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R249">
         <v>17</v>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14019,7 +14019,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14166,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14357,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R258">
         <v>9</v>
@@ -14407,7 +14407,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14457,7 +14457,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14507,7 +14507,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R261">
         <v>19</v>
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14607,7 +14607,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R263">
         <v>25</v>
@@ -14660,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14707,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14848,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14895,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14945,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14995,7 +14995,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R271">
         <v>27</v>
@@ -15045,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15092,7 +15092,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15139,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R275">
         <v>22</v>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15289,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15336,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15480,7 +15480,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15574,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15624,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R284">
         <v>33</v>
@@ -15677,7 +15677,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R285">
         <v>15</v>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15780,7 +15780,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R287">
         <v>6</v>
@@ -15830,7 +15830,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15874,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15921,7 +15921,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15968,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16018,7 +16018,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R292">
         <v>15</v>
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16121,7 +16121,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R294">
         <v>17</v>
@@ -16171,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16271,7 +16271,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R297">
         <v>22</v>
@@ -16321,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16371,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R299">
         <v>24</v>
@@ -16424,7 +16424,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R300">
         <v>24</v>
@@ -16477,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16527,7 +16527,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R302">
         <v>15</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16630,7 +16630,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R304">
         <v>10</v>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16727,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16774,7 +16774,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16821,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16868,7 +16868,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16918,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R310">
         <v>17</v>
@@ -16968,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17015,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17062,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17203,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17250,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17297,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17347,7 +17347,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R319">
         <v>3</v>
@@ -17391,10 +17391,10 @@
         <v>1</v>
       </c>
       <c r="P320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q320">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17441,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17488,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17535,7 +17535,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17582,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17629,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17676,7 +17676,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17723,7 +17723,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17770,7 +17770,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17811,10 +17811,10 @@
         <v>1</v>
       </c>
       <c r="P329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q329">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17864,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R330">
         <v>16</v>
@@ -17917,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17967,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R332">
         <v>16</v>
@@ -18020,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18070,7 +18070,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R334">
         <v>20</v>
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18170,7 +18170,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R336">
         <v>22</v>
@@ -18220,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18270,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R338">
         <v>28</v>
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18373,7 +18373,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R340">
         <v>8</v>
@@ -18423,7 +18423,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18470,7 +18470,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18517,7 +18517,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18564,7 +18564,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18611,7 +18611,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18661,7 +18661,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R346">
         <v>35</v>
@@ -18711,7 +18711,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18758,7 +18758,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18808,7 +18808,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R349">
         <v>28</v>
@@ -18861,7 +18861,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18911,7 +18911,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R351">
         <v>9</v>
@@ -18961,7 +18961,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19011,7 +19011,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R353">
         <v>8</v>
@@ -19064,7 +19064,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19114,7 +19114,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R355">
         <v>17</v>
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19258,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19308,7 +19308,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R359">
         <v>14</v>
@@ -19358,7 +19358,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19408,7 +19408,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R361">
         <v>23</v>
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19511,7 +19511,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R363">
         <v>5</v>
@@ -19558,7 +19558,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19608,7 +19608,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R365">
         <v>25</v>
@@ -19661,7 +19661,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19708,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19758,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19808,7 +19808,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R369">
         <v>15</v>
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19908,7 +19908,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R371">
         <v>28</v>
@@ -19961,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20011,7 +20011,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R373">
         <v>16</v>
@@ -20061,7 +20061,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20108,7 +20108,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20208,7 +20208,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R377">
         <v>26</v>
@@ -20258,7 +20258,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20305,7 +20305,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20355,7 +20355,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R380">
         <v>5</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20452,7 +20452,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20502,7 +20502,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20596,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20643,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20693,7 +20693,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R387">
         <v>27</v>
@@ -20746,7 +20746,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R388">
         <v>18</v>
@@ -20799,7 +20799,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20846,7 +20846,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20893,7 +20893,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20943,7 +20943,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R392">
         <v>23</v>
@@ -20990,7 +20990,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21084,7 +21084,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21131,7 +21131,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21178,7 +21178,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21225,7 +21225,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21275,7 +21275,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R399">
         <v>17</v>
@@ -21328,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21378,7 +21378,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R401">
         <v>18</v>
@@ -21431,7 +21431,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21478,7 +21478,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21525,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21575,7 +21575,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R405">
         <v>19</v>
@@ -21628,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21675,7 +21675,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21725,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21775,7 +21775,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R409">
         <v>35</v>
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21872,7 +21872,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21919,7 +21919,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21966,7 +21966,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22016,7 +22016,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R414">
         <v>6</v>
@@ -22069,7 +22069,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22116,7 +22116,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22163,7 +22163,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22210,7 +22210,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22257,7 +22257,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22304,7 +22304,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22351,7 +22351,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22398,7 +22398,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22448,7 +22448,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R423">
         <v>6</v>
@@ -22501,7 +22501,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22551,7 +22551,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R425">
         <v>11</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22651,7 +22651,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22701,7 +22701,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22751,7 +22751,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R429">
         <v>27</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22854,7 +22854,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R431">
         <v>7</v>
@@ -22898,10 +22898,10 @@
         <v>1</v>
       </c>
       <c r="P432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q432">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433" spans="1:17">
@@ -22942,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
